--- a/biology/Zoologie/Colobus_angolensis/Colobus_angolensis.xlsx
+++ b/biology/Zoologie/Colobus_angolensis/Colobus_angolensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colobus angolensis est une espèce qui fait partie des mammifères Primates. C'est un singe de la famille des Cercopithecidae, appelé en français Guéréza d'Angola, Colobe d'Angola, Colobe noir-et-blanc d'Angola ou Colobe noir-et-blanc angolais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colobus angolensis est une espèce qui fait partie des mammifères Primates. C'est un singe de la famille des Cercopithecidae, appelé en français Guéréza d'Angola, Colobe d'Angola, Colobe noir-et-blanc d'Angola ou Colobe noir-et-blanc angolais.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente au centre de l'Afrique. Notamment en Angola, Tanzanie et en République démocratique du Congo[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente au centre de l'Afrique. Notamment en Angola, Tanzanie et en République démocratique du Congo.
 </t>
         </is>
       </c>
@@ -542,16 +556,18 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (5 mars 2011)[3], ce singe est représenté par six sous-espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (5 mars 2011), ce singe est représenté par six sous-espèces :
 Colobus angolensis angolensis ;
 Colobus angolensis cordieri ;
 Colobus angolensis cottoni ;
 Colobus angolensis palliates ;
 Colobus angolensis prigoginei ;
 Colobus angolensis ruwenzorii.
-Selon NCBI  (5 mars 2011)[4] :
+Selon NCBI  (5 mars 2011) :
 Colobus angolensis angolensis ;
 Colobus angolensis palliatus.</t>
         </is>
